--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>665146.8080563658</v>
+        <v>662583.8708617905</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>385.219981083777</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>99.83565829660029</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>17.39215180266219</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8.906162259192255</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -871,16 +871,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>176.3239947637975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>224.4721802980699</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>298.1226817850969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>76.25086600925697</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>146.7446728868577</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>284.2201283402039</v>
+        <v>361.4613773061605</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>217.1978438865516</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>230.8127283073657</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.391515483393</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>335.9464125187619</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.53032011471324</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119253</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.1078928223868</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646568</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756248</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428257</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8518831495031</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>44.7513807668926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833666</v>
       </c>
       <c r="F28" t="n">
-        <v>11.56087338713362</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>4.019807611472022</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2158.171658232335</v>
+        <v>1179.250440354288</v>
       </c>
       <c r="C2" t="n">
-        <v>1789.209141291923</v>
+        <v>810.2879234138759</v>
       </c>
       <c r="D2" t="n">
-        <v>1430.943442685173</v>
+        <v>452.0222248071254</v>
       </c>
       <c r="E2" t="n">
-        <v>1045.155190086929</v>
+        <v>452.0222248071254</v>
       </c>
       <c r="F2" t="n">
-        <v>634.169285297321</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>218.4645350216099</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400156</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>2544.771498296457</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="Y2" t="n">
-        <v>2544.771498296457</v>
+        <v>1565.850280418409</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5432626034357</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844858</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159576</v>
+        <v>801.9449557744473</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751778</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472123</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648285</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1272.768840528066</v>
+        <v>60.2429100621367</v>
       </c>
       <c r="C4" t="n">
-        <v>1272.768840528066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>1272.768840528066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>1272.768840528066</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>1125.878893030155</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030155</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936617</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936617</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496683</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400156</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.710580560018</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2142.732099754753</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2142.732099754753</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>2142.732099754753</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W4" t="n">
-        <v>1853.314929717792</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X4" t="n">
-        <v>1675.209884501835</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="Y4" t="n">
-        <v>1454.417305358305</v>
+        <v>60.2429100621367</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1634.158487398107</v>
+        <v>1444.690564856569</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.158487398107</v>
+        <v>1444.690564856569</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>1086.424866249818</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>700.6366136515742</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>693.6911129023707</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>277.9863626266596</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664336</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2007.624245659187</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>1634.158487398107</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1634.158487398107</v>
+        <v>1831.290404920691</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>644.9053651971361</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>644.9053651971361</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>494.7887257848004</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1260.212888972913</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.233965749941</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544054</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070934</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>644.9053651971361</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>644.9053651971361</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.950988797912</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087291</v>
@@ -4814,40 +4814,40 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>2064.174362665544</v>
       </c>
       <c r="Y8" t="n">
-        <v>1217.950988797912</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>613.9915673260032</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1117.842204248373</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>828.7238667522107</v>
       </c>
       <c r="V10" t="n">
-        <v>1403.301950067057</v>
+        <v>574.0393785463239</v>
       </c>
       <c r="W10" t="n">
-        <v>1113.884780030097</v>
+        <v>574.0393785463239</v>
       </c>
       <c r="X10" t="n">
-        <v>885.8952291320793</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.1026499885492</v>
+        <v>346.0498276483065</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5033,16 +5033,16 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L11" t="n">
         <v>1461.45766301865</v>
@@ -5054,37 +5054,37 @@
         <v>2919.747202874794</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
-        <v>3416.629877856058</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594978</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608053</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608053</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>141.6400447072593</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>141.6400447072593</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>733.6583989593869</v>
+        <v>1117.915713151552</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1740.011676550888</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>706.6674866466266</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>537.7313037187197</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>387.614664306384</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>239.7015707239909</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="F13" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
@@ -5221,28 +5221,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>964.3593790373418</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.5667998938117</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>150.8995423128877</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841084</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998673</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.528408326419</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>383.4415877881657</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,52 +5510,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,22 +5744,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768874</v>
+        <v>194.8007783998271</v>
       </c>
       <c r="E28" t="n">
-        <v>414.4022433768874</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6604,16 +6604,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7500,16 +7500,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883073568</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>84.9418658837468</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154985</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878341</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.9393975111051</v>
+        <v>21.18099370047509</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.653499817998</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>181.1197517384272</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>21.65606465793439</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>201.1828942658051</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.29152613728996</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.29152613729173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.301660067224</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -23434,7 +23434,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019582551</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.211207246900394e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864867</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>73.85777223953406</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>101.6825818796766</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823251</v>
       </c>
       <c r="F28" t="n">
-        <v>133.8601746357976</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.5956654067403</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>951934.5569921244</v>
+        <v>951934.5569921243</v>
       </c>
     </row>
     <row r="3">
@@ -26317,10 +26317,10 @@
         <v>410520.8849321418</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190154</v>
+        <v>401339.8858190155</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
@@ -26332,13 +26332,13 @@
         <v>403573.2998450032</v>
       </c>
       <c r="I2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.299845003</v>
       </c>
       <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
         <v>403573.2998450031</v>
@@ -26347,7 +26347,7 @@
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361759</v>
+        <v>495753.0386361765</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504183</v>
+        <v>11452.26311504127</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129476.544431744</v>
+        <v>129476.5444317442</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704841</v>
+        <v>3077.017355704674</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93108.49821837085</v>
+        <v>93108.49821837082</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7500.835840494316</v>
@@ -26433,28 +26433,28 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>7507.368461719675</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719677</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="K4" t="n">
-        <v>7507.368461719676</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.36846171968</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719683</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26470,10 +26470,10 @@
         <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-925322.4329838112</v>
+        <v>-925497.6593022203</v>
       </c>
       <c r="C6" t="n">
-        <v>184469.2489455527</v>
+        <v>184469.2489455531</v>
       </c>
       <c r="D6" t="n">
-        <v>184469.2489455526</v>
+        <v>184469.2489455525</v>
       </c>
       <c r="E6" t="n">
-        <v>-202056.1171714931</v>
+        <v>-202102.0221670594</v>
       </c>
       <c r="F6" t="n">
-        <v>283491.1384443345</v>
+        <v>283456.4005188993</v>
       </c>
       <c r="G6" t="n">
-        <v>294943.4015593763</v>
+        <v>294908.6636339407</v>
       </c>
       <c r="H6" t="n">
-        <v>294943.4015593766</v>
+        <v>294908.6636339406</v>
       </c>
       <c r="I6" t="n">
-        <v>294943.4015593766</v>
+        <v>294908.6636339407</v>
       </c>
       <c r="J6" t="n">
-        <v>127338.2237493937</v>
+        <v>127303.485823958</v>
       </c>
       <c r="K6" t="n">
-        <v>294943.4015593762</v>
+        <v>294908.6636339405</v>
       </c>
       <c r="L6" t="n">
-        <v>294943.4015593763</v>
+        <v>294908.6636339406</v>
       </c>
       <c r="M6" t="n">
-        <v>165466.8571276322</v>
+        <v>165432.1192021964</v>
       </c>
       <c r="N6" t="n">
-        <v>291866.3842036715</v>
+        <v>291831.646278236</v>
       </c>
       <c r="O6" t="n">
-        <v>294943.4015593763</v>
+        <v>294908.6636339406</v>
       </c>
       <c r="P6" t="n">
-        <v>294943.4015593762</v>
+        <v>294908.6636339407</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.9761565988463</v>
+        <v>423.9761565988467</v>
       </c>
       <c r="F3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259675</v>
+        <v>519.5604582259684</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259675</v>
+        <v>519.5604582259684</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259675</v>
+        <v>519.5604582259684</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>200.8106183338346</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>352.3389488758069</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>158.3406588394356</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>49.38566062523969</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>76.54637226433547</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>51.11828693231615</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>144.497829987955</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>78.96498250217945</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27910,16 +27910,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>102.0178103158497</v>
+        <v>24.77656134989309</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>3.550852110660315</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>21.32491501646226</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="27">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>187.1630768341356</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>197.8673674492839</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4971006716321</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32336,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>430.136771173632</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32792,10 +32792,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922481</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>271.5293621272317</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378503</v>
@@ -34796,7 +34796,7 @@
         <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.914843031319</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>436.6197581489553</v>
+        <v>318.8613543383252</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>49.32163785977657</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>55.73333352726556</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>57.65947400496543</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>174.4792836591384</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>291.5823913937579</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
